--- a/График сложности.xlsx
+++ b/График сложности.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\182\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C785A2D-19E8-449B-B0A0-78D5444B215F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0946BFF2-4B9F-4937-AE2A-0D03F22BEAE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4FF976BC-9459-4032-86E8-B8EA2FF61E0A}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -594,7 +594,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -917,7 +916,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>44</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45</c:v>
@@ -1421,7 +1420,7 @@
                   <c:v>29800</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>25900</c:v>
+                  <c:v>23600</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>33600</c:v>
@@ -2179,7 +2178,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>44</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45</c:v>
@@ -2683,7 +2682,7 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>76</c:v>
@@ -3475,7 +3474,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>44</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45</c:v>
@@ -3979,7 +3978,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>44</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45</c:v>
@@ -6515,8 +6514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF790940-B5BF-4CDA-A439-47B7C4DEA1D9}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="99" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="A166" sqref="A2:A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6539,7 +6538,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -6553,7 +6552,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -6567,7 +6566,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -6581,7 +6580,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
@@ -6595,7 +6594,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
@@ -6609,7 +6608,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -6623,7 +6622,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -6637,7 +6636,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -6651,7 +6650,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -6665,7 +6664,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
@@ -6679,7 +6678,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
@@ -6693,7 +6692,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
@@ -6707,7 +6706,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
@@ -6721,7 +6720,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
@@ -6735,7 +6734,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2">
@@ -6749,7 +6748,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2">
@@ -6763,7 +6762,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2">
@@ -6777,7 +6776,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2">
@@ -6791,7 +6790,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2">
@@ -6805,7 +6804,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2">
@@ -6819,7 +6818,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2">
@@ -6833,7 +6832,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2">
@@ -6847,7 +6846,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2">
@@ -6861,7 +6860,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2">
@@ -6875,7 +6874,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2">
@@ -6889,7 +6888,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2">
@@ -6903,7 +6902,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2">
@@ -6917,7 +6916,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2">
@@ -6931,7 +6930,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2">
@@ -6945,7 +6944,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2">
@@ -6959,7 +6958,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2">
@@ -6973,7 +6972,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2">
@@ -6987,7 +6986,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2">
@@ -7001,7 +7000,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2">
@@ -7015,7 +7014,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2">
@@ -7029,7 +7028,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2">
@@ -7043,7 +7042,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2">
@@ -7057,7 +7056,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="2">
@@ -7071,7 +7070,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2">
@@ -7085,7 +7084,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2">
@@ -7099,7 +7098,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2">
@@ -7113,7 +7112,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="2">
@@ -7127,7 +7126,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="2">
@@ -7141,7 +7140,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2">
@@ -7155,7 +7154,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2">
@@ -7169,7 +7168,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="2">
@@ -7183,7 +7182,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="2">
@@ -7197,7 +7196,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2">
@@ -7211,7 +7210,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="2">
@@ -7225,7 +7224,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="2">
@@ -7239,7 +7238,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="2">
@@ -7253,7 +7252,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="2">
@@ -7267,7 +7266,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="2">
@@ -7281,7 +7280,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="2">
@@ -7295,7 +7294,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="2">
@@ -7309,7 +7308,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="2">
@@ -7323,7 +7322,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="2">
@@ -7337,7 +7336,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="2">
@@ -7351,7 +7350,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="2">
@@ -7365,7 +7364,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="2">
@@ -7379,7 +7378,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="2">
@@ -7393,7 +7392,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="2">
@@ -7407,7 +7406,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="2">
@@ -7421,7 +7420,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="2">
@@ -7435,7 +7434,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="2">
@@ -7449,7 +7448,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="2">
@@ -7463,7 +7462,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="2">
@@ -7477,7 +7476,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="2">
@@ -7491,7 +7490,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="2">
@@ -7505,7 +7504,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="2">
@@ -7519,7 +7518,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="2">
@@ -7533,7 +7532,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="2">
@@ -7547,7 +7546,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="2">
@@ -7561,21 +7560,21 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C75" s="2">
-        <v>25900</v>
+        <v>23600</v>
       </c>
       <c r="D75" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="2">
@@ -7589,7 +7588,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="2">
@@ -7603,7 +7602,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="2">
@@ -7617,7 +7616,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="2">
@@ -7631,7 +7630,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="2">
@@ -7645,7 +7644,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="2">
@@ -7659,7 +7658,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="2">
@@ -7673,7 +7672,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="2">
@@ -7687,7 +7686,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="2">
@@ -7701,7 +7700,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="2">
@@ -7715,7 +7714,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="2">
@@ -7729,7 +7728,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="2">
@@ -7743,7 +7742,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="2">
@@ -7757,7 +7756,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="2">
@@ -7771,7 +7770,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="2">
@@ -7785,7 +7784,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="2">
@@ -7799,7 +7798,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="2">
@@ -7813,7 +7812,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="2">
@@ -7827,7 +7826,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="2">
@@ -7841,7 +7840,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="2">
@@ -7855,7 +7854,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="2">
@@ -7869,7 +7868,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="2">
@@ -7883,49 +7882,49 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="4">
         <v>61</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <v>40800</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="4">
         <v>62</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <v>72000</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="4">
         <v>63</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="4">
         <v>83300</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="2">
@@ -7939,7 +7938,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="2">
@@ -7953,7 +7952,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="2">
@@ -7967,7 +7966,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="2">
@@ -7981,7 +7980,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="2">
@@ -7995,7 +7994,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="2">
@@ -8009,35 +8008,35 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="4">
         <v>65</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4">
         <v>63600</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="4">
         <v>65</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="4">
         <v>52000</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="2">
@@ -8051,7 +8050,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="2">
@@ -8065,7 +8064,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="2">
@@ -8079,7 +8078,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="2">
@@ -8093,21 +8092,21 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="4">
         <v>66</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="4">
         <v>55400</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="3">
@@ -8121,21 +8120,21 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115" s="4">
         <v>69</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="4">
         <v>77900</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="4">
         <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="2">
@@ -8149,7 +8148,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="2">
@@ -8163,7 +8162,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="2">
@@ -8177,7 +8176,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="2">
@@ -8191,7 +8190,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="2">
@@ -8205,7 +8204,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="2">
@@ -8219,7 +8218,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="2">
@@ -8233,7 +8232,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="2">
@@ -8247,7 +8246,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="2">
@@ -8261,16 +8260,16 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B125" s="4">
         <v>76</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="4">
         <v>52600</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="4">
         <v>112</v>
       </c>
     </row>
@@ -8278,88 +8277,88 @@
       <c r="A126" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126" s="4">
         <v>78</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="4">
         <v>99800</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="4">
         <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127" s="4">
         <v>79</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="4">
         <v>65200</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="4">
         <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="4">
         <v>81</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="4">
         <v>76400</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="4">
         <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="4">
         <v>81</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="4">
         <v>82800</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="4">
         <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130" s="4">
         <v>82</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="4">
         <v>81400</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="4">
         <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131" s="4">
         <v>83</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="4">
         <v>90800</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="4">
         <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B132" s="2">
@@ -8373,35 +8372,35 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133" s="4">
         <v>85</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="4">
         <v>78300</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="4">
         <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B134" s="4">
         <v>85</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="4">
         <v>79200</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="4">
         <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B135" s="2">
@@ -8415,133 +8414,133 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B136" s="4">
         <v>86</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="4">
         <v>48000</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136" s="4">
         <v>112</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137" s="4">
         <v>86</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="4">
         <v>63300</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="4">
         <v>112</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B138" s="4">
         <v>87</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="4">
         <v>65000</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="4">
         <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B139" s="4">
         <v>87</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="4">
         <v>77600</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="4">
         <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B140" s="4">
         <v>88</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="4">
         <v>63700</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="4">
         <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B141" s="4">
         <v>88</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="4">
         <v>65300</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="4">
         <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B142" s="4">
         <v>88</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="4">
         <v>92000</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="4">
         <v>116</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B143" s="4">
         <v>88</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="4">
         <v>68700</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="4">
         <v>116</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B144" s="4">
         <v>89</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="4">
         <v>88900</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="4">
         <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B145" s="2">
@@ -8555,63 +8554,63 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146" s="4">
         <v>91</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="4">
         <v>45000</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="4">
         <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B147" s="4">
         <v>91</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="4">
         <v>87200</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147" s="4">
         <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B148" s="4">
         <v>92</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="4">
         <v>56100</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148" s="4">
         <v>124</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149" s="4">
         <v>93</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149" s="4">
         <v>80500</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149" s="4">
         <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B150" s="3">
@@ -8625,63 +8624,63 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151" s="4">
         <v>95</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="4">
         <v>63300</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151" s="4">
         <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152" s="4">
         <v>95</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="4">
         <v>74300</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="4">
         <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B153" s="4">
         <v>97</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="4">
         <v>88000</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="4">
         <v>134</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154" s="4">
         <v>98</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="4">
         <v>67200</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="4">
         <v>176</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B155" s="2">
@@ -8695,35 +8694,35 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="4">
         <v>99</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="4">
         <v>64900</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="4">
         <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157" s="4">
         <v>99</v>
       </c>
-      <c r="C157" s="5">
+      <c r="C157" s="4">
         <v>69800</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="4">
         <v>138</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="4" t="s">
         <v>159</v>
       </c>
       <c r="B158" s="2">
@@ -8737,35 +8736,35 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="4">
         <v>100</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C159" s="4">
         <v>92100</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="4">
         <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160" s="4">
         <v>101</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C160" s="4">
         <v>87300</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="4">
         <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B161" s="2">
@@ -8779,35 +8778,35 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="4">
         <v>102</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C162" s="4">
         <v>65000</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="4">
         <v>144</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="4">
         <v>102</v>
       </c>
-      <c r="C163" s="5">
+      <c r="C163" s="4">
         <v>71800</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="4">
         <v>144</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B164" s="2">
@@ -8821,21 +8820,21 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165" s="4">
         <v>103</v>
       </c>
-      <c r="C165" s="5">
+      <c r="C165" s="4">
         <v>76600</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="4">
         <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B166" s="2">

--- a/График сложности.xlsx
+++ b/График сложности.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\182\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0946BFF2-4B9F-4937-AE2A-0D03F22BEAE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA614F5-2058-40EA-896E-0F74EEA1C494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4FF976BC-9459-4032-86E8-B8EA2FF61E0A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Graph 1</t>
   </si>
@@ -529,13 +529,16 @@
   </si>
   <si>
     <t>Graph 165</t>
+  </si>
+  <si>
+    <t>епрр</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,7 +562,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="204"/>
@@ -585,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -594,7 +612,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,58 +887,58 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>36</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>40</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="71">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45</c:v>
@@ -1369,58 +1391,58 @@
                   <c:v>23600</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>23600</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>26600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>23600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>32200</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>16200</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>27900</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>22800</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>22400</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>34900</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>22900</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>27800</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>22700</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>40200</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>29800</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>23600</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>33600</c:v>
@@ -2127,58 +2149,58 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>36</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>40</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="71">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45</c:v>
@@ -2631,58 +2653,58 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>76</c:v>
@@ -3173,20 +3195,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>O(V+E) </a:t>
+              <a:t>O(V+E)</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.43591540684517782"/>
-          <c:y val="3.6959161225701809E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3227,11 +3241,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
+              <c:f>Лист1!$B$168</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>V+E (сумма вершин и ребер графа)</c:v>
+                  <c:v>епрр</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3248,1009 +3262,322 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$166</c:f>
+              <c:f>Лист1!$B$169:$B$272</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="165"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>16</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>17</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>17</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>20</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>22</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>22</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>26</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>26</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>28</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>28</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>28</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>31</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>32</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>33</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>35</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>35</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>36</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>36</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>38</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>39</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>39</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>40</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>40</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>41</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>44</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>28</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>45</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>45</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>47</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>48</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>49</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>49</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>49</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>49</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>49</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>49</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>50</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>52</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>53</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>54</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>56</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>56</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>56</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>56</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>56</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>57</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>58</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>61</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>61</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>62</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>63</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>64</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>64</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>64</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>65</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>104</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$B$2:$B$166</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="165"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="164">
                   <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
@@ -4259,7 +3586,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-32B1-4E85-8260-5421E8889548}"/>
+              <c16:uniqueId val="{00000000-3554-49E0-9102-20A62D94CFEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4272,54 +3599,20 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="778023936"/>
-        <c:axId val="536237792"/>
+        <c:axId val="785167008"/>
+        <c:axId val="773186160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="778023936"/>
+        <c:axId val="785167008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="536237792"/>
+        <c:crossAx val="773186160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4327,11 +3620,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="536237792"/>
+        <c:axId val="773186160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4351,36 +3644,9 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="778023936"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossAx val="785167008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6179,22 +5445,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>18317</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>178044</xdr:rowOff>
+      <xdr:rowOff>183187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
+      <xdr:colOff>315576</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>173648</xdr:rowOff>
+      <xdr:rowOff>155478</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5">
+        <xdr:cNvPr id="15" name="Диаграмма 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120F5C19-1067-43C6-AD48-6FC108B1A9BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584BE37B-A826-4F01-AEBF-7D099F45C73A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6210,6 +5476,112 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146242</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146242</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177030</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Прямая со стрелкой 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4A6709-23F7-466B-8CF8-4C16BDA7ED67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4217939" y="7173576"/>
+          <a:ext cx="0" cy="2232121"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146242</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>15394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Прямая со стрелкой 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9AB1F4-6BC2-4D7D-9544-0FB6089AC15E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4217939" y="9428788"/>
+          <a:ext cx="4364182" cy="7697"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6512,10 +5884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF790940-B5BF-4CDA-A439-47B7C4DEA1D9}">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="99" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="A166" sqref="A2:A166"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7326,13 +6698,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C58" s="2">
-        <v>19600</v>
+        <v>23600</v>
       </c>
       <c r="D58" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -7340,13 +6712,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
+        <v>31</v>
+      </c>
+      <c r="C59" s="2">
+        <v>19600</v>
+      </c>
+      <c r="D59" s="2">
         <v>32</v>
-      </c>
-      <c r="C59" s="2">
-        <v>21100</v>
-      </c>
-      <c r="D59" s="2">
-        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -7354,13 +6726,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" s="2">
-        <v>26600</v>
+        <v>21100</v>
       </c>
       <c r="D60" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -7368,13 +6740,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C61" s="2">
-        <v>22100</v>
+        <v>26600</v>
       </c>
       <c r="D61" s="2">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -7385,10 +6757,10 @@
         <v>35</v>
       </c>
       <c r="C62" s="2">
-        <v>23600</v>
+        <v>22100</v>
       </c>
       <c r="D62" s="2">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -7396,13 +6768,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63" s="2">
-        <v>32200</v>
+        <v>23600</v>
       </c>
       <c r="D63" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -7413,10 +6785,10 @@
         <v>36</v>
       </c>
       <c r="C64" s="2">
-        <v>16200</v>
+        <v>32200</v>
       </c>
       <c r="D64" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -7424,13 +6796,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2">
-        <v>27900</v>
+        <v>16200</v>
       </c>
       <c r="D65" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -7438,13 +6810,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" s="2">
-        <v>22800</v>
+        <v>27900</v>
       </c>
       <c r="D66" s="2">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -7455,10 +6827,10 @@
         <v>39</v>
       </c>
       <c r="C67" s="2">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="D67" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -7466,10 +6838,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" s="2">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="D68" s="2">
         <v>64</v>
@@ -7483,10 +6855,10 @@
         <v>40</v>
       </c>
       <c r="C69" s="2">
-        <v>34900</v>
+        <v>21600</v>
       </c>
       <c r="D69" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -7494,13 +6866,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2">
-        <v>22900</v>
+        <v>34900</v>
       </c>
       <c r="D70" s="2">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -7508,13 +6880,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C71" s="2">
-        <v>27800</v>
+        <v>22900</v>
       </c>
       <c r="D71" s="2">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -7525,10 +6897,10 @@
         <v>42</v>
       </c>
       <c r="C72" s="2">
-        <v>22700</v>
+        <v>27800</v>
       </c>
       <c r="D72" s="2">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -7536,13 +6908,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2">
-        <v>40200</v>
+        <v>22700</v>
       </c>
       <c r="D73" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -7550,13 +6922,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" s="2">
-        <v>29800</v>
+        <v>40200</v>
       </c>
       <c r="D74" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -7564,13 +6936,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2">
-        <v>23600</v>
+        <v>29800</v>
       </c>
       <c r="D75" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -8845,6 +8217,531 @@
       </c>
       <c r="D166" s="2">
         <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B168" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B169" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B170" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B171" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B172" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B173" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B174" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B175" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B176" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B260" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B263" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B265" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" s="6">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/График сложности.xlsx
+++ b/График сложности.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\182\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA614F5-2058-40EA-896E-0F74EEA1C494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7505B4A7-B8AB-4A83-A0CE-C30D1449A473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4FF976BC-9459-4032-86E8-B8EA2FF61E0A}"/>
   </bookViews>
